--- a/newlocation.xlsx
+++ b/newlocation.xlsx
@@ -21,61 +21,10 @@
     <definedName name="VSTS_20e4ba63_6665_486a_bf69_250b530dd496_24" hidden="1">Sheet2!$F$2:$F$4</definedName>
     <definedName name="VSTS_20e4ba63_6665_486a_bf69_250b530dd496_25" hidden="1">Sheet2!$C$2:$C$4</definedName>
     <definedName name="VSTS_20e4ba63_6665_486a_bf69_250b530dd496_n3" hidden="1">Sheet2!$A$2:$A$4</definedName>
-    <definedName name="VSTS_ValidationRange_053d37474d044fe48f5dfbde9d60c181" hidden="1">VSTS_ValidationWS_1!$AP$1:$AP$7</definedName>
-    <definedName name="VSTS_ValidationRange_0986be7e68e24e628db51d3078cc48a8" hidden="1">VSTS_ValidationWS_1!$O$1:$O$7</definedName>
-    <definedName name="VSTS_ValidationRange_0a4c39731639449d987a51d98461311d" hidden="1">VSTS_ValidationWS_1!$AF$1:$AF$2</definedName>
-    <definedName name="VSTS_ValidationRange_0fa005d098fe450297a44a4abf493d6b" hidden="1">VSTS_ValidationWS_1!$AM$1:$AM$7</definedName>
-    <definedName name="VSTS_ValidationRange_114b22521ca54452a6ea48c97fc7a994" hidden="1">VSTS_ValidationWS_1!$R$1:$R$7</definedName>
-    <definedName name="VSTS_ValidationRange_1c2ec3df0ef14297ab0b2975ce75b737" hidden="1">VSTS_ValidationWS_1!$T$1:$T$3</definedName>
-    <definedName name="VSTS_ValidationRange_1d54ece57ba641a9a3e4585cc31a0d9c" hidden="1">VSTS_ValidationWS_1!$AN$1:$AN$24</definedName>
-    <definedName name="VSTS_ValidationRange_1f72f28ef2f24614bbff09f0769cf549" hidden="1">VSTS_ValidationWS_1!$AJ$1:$AJ$5</definedName>
-    <definedName name="VSTS_ValidationRange_24197faceba1486d8db3919846ff809d" hidden="1">VSTS_ValidationWS_1!$AR$1:$AR$2</definedName>
-    <definedName name="VSTS_ValidationRange_2b52989706944dc0ab4ffd5616068a43" hidden="1">VSTS_ValidationWS_1!$N$1:$N$4</definedName>
-    <definedName name="VSTS_ValidationRange_2c7068626edd4473a7fcfd4a1d586dad" hidden="1">VSTS_ValidationWS_1!$E$1:$E$5</definedName>
-    <definedName name="VSTS_ValidationRange_3213a6ba5a7b40d59a974cbae85ad28e" hidden="1">VSTS_ValidationWS_1!$M$1:$M$24</definedName>
-    <definedName name="VSTS_ValidationRange_3438e140023548aead5850d03547c988" hidden="1">VSTS_ValidationWS_1!$AA$1:$AA$3</definedName>
-    <definedName name="VSTS_ValidationRange_3571d024428445d2ae868de64145820b" hidden="1">VSTS_ValidationWS_1!$P$1:$P$24</definedName>
-    <definedName name="VSTS_ValidationRange_35cdfbd44d564b0ea1c7b2fe583eb374" hidden="1">VSTS_ValidationWS_1!$AB$1:$AB$24</definedName>
-    <definedName name="VSTS_ValidationRange_438a8760c11e4696b77154555e30bf4d" hidden="1">VSTS_ValidationWS_1!$K$1:$K$3</definedName>
-    <definedName name="VSTS_ValidationRange_4eaf79343b684377a83429d6b6ae9e84" hidden="1">VSTS_ValidationWS_1!$S$1:$S$24</definedName>
-    <definedName name="VSTS_ValidationRange_55f6c3793f1e46ce800a4bc4b4e9de47" hidden="1">VSTS_ValidationWS_1!$AH$1:$AH$24</definedName>
-    <definedName name="VSTS_ValidationRange_58707bc91a5e45e0afc2e101c56c213c" hidden="1">VSTS_ValidationWS_1!$Q$1:$Q$4</definedName>
-    <definedName name="VSTS_ValidationRange_5f942a90dba54d6892c59ac885fd8c76" hidden="1">VSTS_ValidationWS_1!$AK$1:$AK$24</definedName>
-    <definedName name="VSTS_ValidationRange_66e5bd3c2e7d4bb4bb4b25ff8b282c41" hidden="1">VSTS_ValidationWS_1!$L$1:$L$4</definedName>
-    <definedName name="VSTS_ValidationRange_6b46a908c8204f81b69840517f3d8a06" hidden="1">VSTS_ValidationWS_1!$AV$1:$AV$7</definedName>
-    <definedName name="VSTS_ValidationRange_7002353c24e643db8d9244570cb5836a" hidden="1">VSTS_ValidationWS_1!$W$1:$W$2</definedName>
-    <definedName name="VSTS_ValidationRange_746b681832094becaf6ba99522cc9b17" hidden="1">VSTS_ValidationWS_1!$AD$1:$AD$9</definedName>
-    <definedName name="VSTS_ValidationRange_7bce990ba76245f5b11fa5c220d09f5d" hidden="1">VSTS_ValidationWS_1!$AS$1:$AS$3</definedName>
-    <definedName name="VSTS_ValidationRange_7ec8b2c61a5a4bc586b649954bef000d" hidden="1">VSTS_ValidationWS_1!$AU$1:$AU$3</definedName>
-    <definedName name="VSTS_ValidationRange_8054e334e7904ccab1f1820271d4d9d7" hidden="1">VSTS_ValidationWS_1!$AW$1:$AW$24</definedName>
     <definedName name="VSTS_ValidationRange_842a4a9b7ac74b52a21c717a29bf2db8" hidden="1">VSTS_ValidationWS_1!$B$1</definedName>
-    <definedName name="VSTS_ValidationRange_8ad82107b9a74af998f04deb0ab956ff" hidden="1">VSTS_ValidationWS_1!$AL$1:$AL$4</definedName>
-    <definedName name="VSTS_ValidationRange_920d9234be8547e39fe8f90ce1839b0a" hidden="1">VSTS_ValidationWS_1!$AO$1:$AO$3</definedName>
-    <definedName name="VSTS_ValidationRange_9deb133cd7f0487ca20a0bd89713b5b3" hidden="1">VSTS_ValidationWS_1!$BA$1:$BA$24</definedName>
-    <definedName name="VSTS_ValidationRange_a682632b0c5742908692cc111af9f5ab" hidden="1">VSTS_ValidationWS_1!$Y$1:$Y$24</definedName>
-    <definedName name="VSTS_ValidationRange_aa21330a4c9d4bf18cd6610c5861e674" hidden="1">VSTS_ValidationWS_1!$BB$1</definedName>
-    <definedName name="VSTS_ValidationRange_abee3f67479947fc9d757e377983130b" hidden="1">VSTS_ValidationWS_1!$I$1:$I$2</definedName>
-    <definedName name="VSTS_ValidationRange_affd4f7978584f11ac51fc6f8ee0824b" hidden="1">VSTS_ValidationWS_1!$U$1:$U$4</definedName>
-    <definedName name="VSTS_ValidationRange_b7d1f396bfe74749a18da28ff6abebdf" hidden="1">VSTS_ValidationWS_1!$J$1:$J$24</definedName>
     <definedName name="VSTS_ValidationRange_b80cb9345d7542f99007aee5ad2fb395" hidden="1">VSTS_ValidationWS_1!$C$1</definedName>
-    <definedName name="VSTS_ValidationRange_c0d8416a80bb433aaf2c716ebd83c33b" hidden="1">VSTS_ValidationWS_1!$V$1:$V$24</definedName>
-    <definedName name="VSTS_ValidationRange_c17cf89c2ed14c4d92e35a782ad42893" hidden="1">VSTS_ValidationWS_1!$AX$1:$AX$15</definedName>
-    <definedName name="VSTS_ValidationRange_c5b3039bfe1e45c5b4acd16978d9d01f" hidden="1">VSTS_ValidationWS_1!$AQ$1:$AQ$24</definedName>
-    <definedName name="VSTS_ValidationRange_c87e55e3571c441588aeccfd421ddf18" hidden="1">VSTS_ValidationWS_1!$AG$1:$AG$3</definedName>
-    <definedName name="VSTS_ValidationRange_ccc91def6d7a48d1a108e0eac7a0c928" hidden="1">VSTS_ValidationWS_1!$AT$1:$AT$24</definedName>
-    <definedName name="VSTS_ValidationRange_cf5313753ed3433cbf0d167c70eb7061" hidden="1">VSTS_ValidationWS_1!$AE$1:$AE$24</definedName>
-    <definedName name="VSTS_ValidationRange_ddef2d0cf3584406880170384c79d312" hidden="1">VSTS_ValidationWS_1!$F$1:$F$12</definedName>
-    <definedName name="VSTS_ValidationRange_de025aa99e254baf97b6e2627df6af74" hidden="1">VSTS_ValidationWS_1!$G$1:$G$24</definedName>
-    <definedName name="VSTS_ValidationRange_e02b292b68dc4f5d8f30e2f422a0207f" hidden="1">VSTS_ValidationWS_1!$Z$1:$Z$2</definedName>
-    <definedName name="VSTS_ValidationRange_e4339ef1cc3c4a3f86f63c9b230cdd39" hidden="1">VSTS_ValidationWS_1!$AC$1:$AC$5</definedName>
-    <definedName name="VSTS_ValidationRange_e4ae9a3067d24fb9b5b9d81670ece774" hidden="1">VSTS_ValidationWS_1!$H$1:$H$2</definedName>
-    <definedName name="VSTS_ValidationRange_e80420646f104c2abc800fb9ebfbe07e" hidden="1">VSTS_ValidationWS_1!$AI$1:$AI$2</definedName>
-    <definedName name="VSTS_ValidationRange_ed59fca8d70d4d52b85b5956968b0a42" hidden="1">VSTS_ValidationWS_1!$BC$1:$BC$7</definedName>
     <definedName name="VSTS_ValidationRange_edd2c6b9d9784dcb972a8f0a0eeef18a" hidden="1">VSTS_ValidationWS_1!$A$1</definedName>
-    <definedName name="VSTS_ValidationRange_f57f284e1e9948a8b1a0d36df71666b1" hidden="1">VSTS_ValidationWS_1!$X$1:$X$2</definedName>
-    <definedName name="VSTS_ValidationRange_fc11dd0f2fff4353b6e2910a9e4b3163" hidden="1">VSTS_ValidationWS_1!$AZ$1:$AZ$47</definedName>
     <definedName name="VSTS_ValidationRange_fede7fb492ad4cf6b57b5ee3ec11934f" hidden="1">VSTS_ValidationWS_1!$D$1</definedName>
-    <definedName name="VSTS_ValidationRange_ff0814f9a1304e56b53230fd39823f94" hidden="1">VSTS_ValidationWS_1!$AY$1:$AY$17</definedName>
     <definedName name="Washington_state_legislative_districts" localSheetId="0">location!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -125,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>District Number</t>
   </si>
@@ -299,477 +248,6 @@
   </si>
   <si>
     <t>readOnlyTestRange_General</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Committed</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Bug_System.State</t>
-  </si>
-  <si>
-    <t>Additional work found</t>
-  </si>
-  <si>
-    <t>Approved by the Product Owner</t>
-  </si>
-  <si>
-    <t>Build Failure</t>
-  </si>
-  <si>
-    <t>Commitment made by the team</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>Moved to the backlog</t>
-  </si>
-  <si>
-    <t>New defect reported</t>
-  </si>
-  <si>
-    <t>Not a Bug</t>
-  </si>
-  <si>
-    <t>Reconsidering backlog item</t>
-  </si>
-  <si>
-    <t>Removed from the backlog</t>
-  </si>
-  <si>
-    <t>Work finished</t>
-  </si>
-  <si>
-    <t>Work stopped</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Bug_System.Reason</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.AccountAdmin</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.Apps</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.CLT</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.CodeLens</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.CodePlex</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.ContentRepository</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.Drop</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.Napa</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.NuGet</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.ProjectDiscovery</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.RDFE</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.ReleaseManagement</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.SanityGate</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.Search</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.ServiceHooks</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.SPS</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.SpsExtension</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.Symbol</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.TestResultsInsights</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.TFS</t>
-  </si>
-  <si>
-    <t>Microsoft.VisualStudio.Services.Tofino</t>
-  </si>
-  <si>
-    <t>OssManagement</t>
-  </si>
-  <si>
-    <t>Sally Ann Budack</t>
-  </si>
-  <si>
-    <t>TeamFoundationService (TEAM FOUNDATION)</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Bug_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Requested</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Code Review Request_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Code Review Request_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Code Review Request_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Code Review Response_System.State</t>
-  </si>
-  <si>
-    <t>Reactivated</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Code Review Response_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Code Review Response_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Epic_System.State</t>
-  </si>
-  <si>
-    <t>Implementation started</t>
-  </si>
-  <si>
-    <t>New epic</t>
-  </si>
-  <si>
-    <t>Reconsidering the epic</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Epic_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Epic_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feature_System.State</t>
-  </si>
-  <si>
-    <t>New feature</t>
-  </si>
-  <si>
-    <t>Reconsidering the feature</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feature_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feature_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feedback Request_System.State</t>
-  </si>
-  <si>
-    <t>Cancelled Feedback Request</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feedback Request_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feedback Request_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feedback Response_System.State</t>
-  </si>
-  <si>
-    <t>Reviewed</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feedback Response_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Feedback Response_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Impediment_System.State</t>
-  </si>
-  <si>
-    <t>Impediment removed</t>
-  </si>
-  <si>
-    <t>Impediment reopened</t>
-  </si>
-  <si>
-    <t>New impediment</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Impediment_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Impediment_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Product Backlog Item_System.State</t>
-  </si>
-  <si>
-    <t>New backlog item</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Product Backlog Item_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Product Backlog Item_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Shared Parameter_System.State</t>
-  </si>
-  <si>
-    <t>New Shared Parameter</t>
-  </si>
-  <si>
-    <t>Shared Parameter Activated</t>
-  </si>
-  <si>
-    <t>Shared Parameter Deactivated</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Shared Parameter_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Shared Parameter_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Shared Steps_System.State</t>
-  </si>
-  <si>
-    <t>Deferred</t>
-  </si>
-  <si>
-    <t>Obsolete</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Shared Steps_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Shared Steps_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Task_System.State</t>
-  </si>
-  <si>
-    <t>New task</t>
-  </si>
-  <si>
-    <t>Reconsidering the Task</t>
-  </si>
-  <si>
-    <t>Work started</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Task_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Task_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Ready</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Case_System.State</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Update Test Case</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Case_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Case_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Plan_System.State</t>
-  </si>
-  <si>
-    <t>New test plan</t>
-  </si>
-  <si>
-    <t>Test plan deactivated</t>
-  </si>
-  <si>
-    <t>Test plan reactivated</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Plan_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Plan_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>In Planning</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Suite_System.State</t>
-  </si>
-  <si>
-    <t>Completed testing for this test suite</t>
-  </si>
-  <si>
-    <t>New test suite</t>
-  </si>
-  <si>
-    <t>Plan test cases for this test suite</t>
-  </si>
-  <si>
-    <t>Reactivating to planning phase</t>
-  </si>
-  <si>
-    <t>Reactivating to run tests</t>
-  </si>
-  <si>
-    <t>Removed from planning and test execution</t>
-  </si>
-  <si>
-    <t>Tests in this test suite are now active and can be run</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Suite_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_Test Suite_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>Code Review Request</t>
-  </si>
-  <si>
-    <t>Code Review Response</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Feedback Request</t>
-  </si>
-  <si>
-    <t>Feedback Response</t>
-  </si>
-  <si>
-    <t>Impediment</t>
-  </si>
-  <si>
-    <t>Product Backlog Item</t>
-  </si>
-  <si>
-    <t>Shared Parameter</t>
-  </si>
-  <si>
-    <t>Shared Steps</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Test Plan</t>
-  </si>
-  <si>
-    <t>Test Suite</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_System.WorkItemType</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_System.Reason</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_System.AreaPath</t>
-  </si>
-  <si>
-    <t>\Sprint 1</t>
-  </si>
-  <si>
-    <t>\Sprint 2</t>
-  </si>
-  <si>
-    <t>\Sprint 3</t>
-  </si>
-  <si>
-    <t>\Sprint 4</t>
-  </si>
-  <si>
-    <t>\Sprint 5</t>
-  </si>
-  <si>
-    <t>\Sprint 6</t>
-  </si>
-  <si>
-    <t>all_VSTS_20e4ba63_6665_486a_bf69_250b530dd496_System.IterationPath</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/File:LD_22.pdf</t>
@@ -924,7 +402,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -994,7 +472,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4047,10 +3525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A46" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A48" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.5703125" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4081,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -4092,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>5</v>
@@ -4103,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>6</v>
@@ -4114,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>7</v>
@@ -4125,7 +3603,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>8</v>
@@ -4136,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>9</v>
@@ -4147,7 +3625,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>10</v>
@@ -4158,7 +3636,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>11</v>
@@ -4169,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>12</v>
@@ -4180,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>13</v>
@@ -4191,7 +3669,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>14</v>
@@ -4202,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>15</v>
@@ -4213,7 +3691,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>16</v>
@@ -4224,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -4235,7 +3713,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>18</v>
@@ -4246,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>19</v>
@@ -4257,7 +3735,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>20</v>
@@ -4268,7 +3746,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>21</v>
@@ -4279,7 +3757,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>22</v>
@@ -4290,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>23</v>
@@ -4301,7 +3779,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>24</v>
@@ -4312,7 +3790,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>25</v>
@@ -4323,7 +3801,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>26</v>
@@ -4334,7 +3812,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>27</v>
@@ -4345,7 +3823,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>28</v>
@@ -4356,7 +3834,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>29</v>
@@ -4367,7 +3845,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>30</v>
@@ -4378,7 +3856,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>31</v>
@@ -4389,7 +3867,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>32</v>
@@ -4400,7 +3878,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>33</v>
@@ -4411,7 +3889,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>34</v>
@@ -4422,7 +3900,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>35</v>
@@ -4433,7 +3911,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>36</v>
@@ -4444,7 +3922,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>37</v>
@@ -4455,7 +3933,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>38</v>
@@ -4466,7 +3944,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>39</v>
@@ -4477,7 +3955,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>40</v>
@@ -4488,19 +3966,21 @@
         <v>38</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D39" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4508,10 +3988,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4519,10 +3999,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4530,10 +4010,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4541,10 +4021,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4552,10 +4032,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4563,10 +4043,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4574,10 +4054,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,10 +4065,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4596,10 +4076,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4607,14 +4087,9 @@
         <v>49</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4699,7 +4174,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BC48"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4708,7 +4183,7 @@
     <col min="1" max="4" width="200.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4721,161 +4196,8 @@
       <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4887,1895 +4209,6 @@
       </c>
       <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" t="s">
-        <v>129</v>
-      </c>
-      <c r="X3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" t="s">
-        <v>125</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" t="s">
-        <v>127</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="G14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="G15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="G16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA17" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>203</v>
-      </c>
-      <c r="AZ18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA22" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" t="s">
-        <v>106</v>
-      </c>
-      <c r="M25" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" t="s">
-        <v>118</v>
-      </c>
-      <c r="S25" t="s">
-        <v>123</v>
-      </c>
-      <c r="V25" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="AZ26" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="AZ27" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="AZ28" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="AZ29" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="AZ30" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="AZ31" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="7:53" x14ac:dyDescent="0.25">
-      <c r="AZ32" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ33" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ34" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ35" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ36" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ37" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ38" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ39" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ40" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ41" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ42" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ43" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ44" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ45" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ46" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ47" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="52:52" x14ac:dyDescent="0.25">
-      <c r="AZ48" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
